--- a/app/src/main/resources/migration/HAS-DB-대비견적서.xlsx
+++ b/app/src/main/resources/migration/HAS-DB-대비견적서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ws_intellij\hywtl_has\app\src\main\resources\migration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amist\IdeaProjects\hywtl_has\app\src\main\resources\migration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3357E9D-D91D-4559-990E-1F34B1FC6CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6FC15B-1E39-4C6E-BA18-7E20A2F33C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-6855" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="migration" sheetId="3" r:id="rId1"/>
@@ -672,7 +672,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -763,12 +763,24 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -952,7 +964,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1053,6 +1065,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1376,9 +1394,11 @@
   </sheetPr>
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="26.25" style="1" bestFit="1" customWidth="1"/>
@@ -1392,17 +1412,17 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="35" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="29" t="s">
@@ -1421,7 +1441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="29">
         <v>22430</v>
       </c>
@@ -1451,7 +1471,7 @@
         <v>44897</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="29">
         <v>22426</v>
       </c>
@@ -1481,7 +1501,7 @@
         <v>44887</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="29">
         <v>22402</v>
       </c>
@@ -1511,7 +1531,7 @@
         <v>44855</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="29">
         <v>22370</v>
       </c>
@@ -1541,7 +1561,7 @@
         <v>44823</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="29">
         <v>22355</v>
       </c>
@@ -1571,7 +1591,7 @@
         <v>44811</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="29">
         <v>22347</v>
       </c>
@@ -1601,7 +1621,7 @@
         <v>44802</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="29">
         <v>22339</v>
       </c>
@@ -1627,7 +1647,7 @@
         <v>44797</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="29">
         <v>22323</v>
       </c>
@@ -1657,7 +1677,7 @@
         <v>44781</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="29">
         <v>22307</v>
       </c>
@@ -1687,7 +1707,7 @@
         <v>44764</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="29">
         <v>22301</v>
       </c>
@@ -1713,7 +1733,7 @@
         <v>44838</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="29">
         <v>22299</v>
       </c>
@@ -1743,7 +1763,7 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="29">
         <v>22271</v>
       </c>
@@ -1773,7 +1793,7 @@
         <v>44691</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="29">
         <v>22266</v>
       </c>
@@ -1801,7 +1821,7 @@
         <v>44728</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" s="29">
         <v>22264</v>
       </c>
@@ -1831,7 +1851,7 @@
         <v>44728</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="29">
         <v>22245</v>
       </c>
@@ -1861,7 +1881,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" s="29">
         <v>22237</v>
       </c>
@@ -1891,7 +1911,7 @@
         <v>44706</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" s="29">
         <v>22230</v>
       </c>
@@ -1921,7 +1941,7 @@
         <v>44704</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19" s="29">
         <v>22225</v>
       </c>
@@ -1951,7 +1971,7 @@
         <v>44685</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20" s="29">
         <v>22215</v>
       </c>
@@ -1981,7 +2001,7 @@
         <v>44700</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21" s="29">
         <v>22163</v>
       </c>
@@ -2011,7 +2031,7 @@
         <v>44659</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22" s="29">
         <v>22157</v>
       </c>
@@ -2041,7 +2061,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23" s="29">
         <v>22156</v>
       </c>
@@ -2071,7 +2091,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24" s="29">
         <v>22139</v>
       </c>
@@ -2101,7 +2121,7 @@
         <v>44644</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25" s="29">
         <v>22131</v>
       </c>
@@ -2131,7 +2151,7 @@
         <v>44643</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26" s="29">
         <v>22129</v>
       </c>
@@ -2161,7 +2181,7 @@
         <v>44601</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27" s="29">
         <v>22090</v>
       </c>
@@ -2191,7 +2211,7 @@
         <v>44615</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28" s="29">
         <v>22062</v>
       </c>
@@ -2218,7 +2238,7 @@
         <v>44607</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="A29" s="29">
         <v>22046</v>
       </c>
@@ -2248,7 +2268,7 @@
         <v>44587</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="A30" s="29">
         <v>21551</v>
       </c>
@@ -2278,7 +2298,7 @@
         <v>44552</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9">
       <c r="A31" s="29">
         <v>21485</v>
       </c>
@@ -2308,7 +2328,7 @@
         <v>44502</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9">
       <c r="A32" s="29">
         <v>21463</v>
       </c>
@@ -2338,7 +2358,7 @@
         <v>44489</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9">
       <c r="A33" s="29">
         <v>21432</v>
       </c>
@@ -2368,7 +2388,7 @@
         <v>44436</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9">
       <c r="A34" s="29">
         <v>21422</v>
       </c>
@@ -2398,7 +2418,7 @@
         <v>44462</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9">
       <c r="A35" s="29">
         <v>21421</v>
       </c>
@@ -2428,7 +2448,7 @@
         <v>44462</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9">
       <c r="A36" s="29">
         <v>21386</v>
       </c>
@@ -2458,7 +2478,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9">
       <c r="A37" s="29">
         <v>21386</v>
       </c>
@@ -2488,7 +2508,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9">
       <c r="A38" s="29">
         <v>21376</v>
       </c>
@@ -2518,7 +2538,7 @@
         <v>44433</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9">
       <c r="A39" s="29">
         <v>21351</v>
       </c>
@@ -2548,7 +2568,7 @@
         <v>44417</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9">
       <c r="A40" s="29">
         <v>21315</v>
       </c>
@@ -2566,7 +2586,7 @@
       </c>
       <c r="I40" s="29"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9">
       <c r="A41" s="29">
         <v>21330</v>
       </c>
@@ -2596,7 +2616,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9">
       <c r="A42" s="29">
         <v>21300</v>
       </c>
@@ -2626,7 +2646,7 @@
         <v>44383</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9">
       <c r="A43" s="29">
         <v>21300</v>
       </c>
@@ -2656,7 +2676,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9">
       <c r="A44" s="29">
         <v>21275</v>
       </c>
@@ -2684,7 +2704,7 @@
         <v>44369</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9">
       <c r="A45" s="29">
         <v>21272</v>
       </c>
@@ -2714,7 +2734,7 @@
         <v>44369</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9">
       <c r="A46" s="29">
         <v>21271</v>
       </c>
@@ -2744,7 +2764,7 @@
         <v>44280</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9">
       <c r="A47" s="29">
         <v>21270</v>
       </c>
@@ -2772,7 +2792,7 @@
         <v>44320</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9">
       <c r="A48" s="29">
         <v>21269</v>
       </c>
@@ -2802,7 +2822,7 @@
         <v>44368</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9">
       <c r="A49" s="29">
         <v>21170</v>
       </c>
@@ -2832,7 +2852,7 @@
         <v>43674</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9">
       <c r="A50" s="29">
         <v>21050</v>
       </c>
@@ -2862,7 +2882,7 @@
         <v>44232</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9">
       <c r="A51" s="29">
         <v>21039</v>
       </c>
@@ -2892,7 +2912,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9">
       <c r="A52" s="29">
         <v>21021</v>
       </c>
@@ -2922,7 +2942,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9">
       <c r="A53" s="29">
         <v>21021</v>
       </c>
@@ -2952,7 +2972,7 @@
         <v>44232</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9">
       <c r="A54" s="29">
         <v>21021</v>
       </c>
@@ -2982,7 +3002,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9">
       <c r="A55" s="29">
         <v>21015</v>
       </c>
@@ -3033,7 +3053,7 @@
       <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="8.75" style="4" customWidth="1"/>
     <col min="3" max="3" width="11.625" style="4" customWidth="1"/>
@@ -3047,7 +3067,7 @@
     <col min="13" max="16384" width="12" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="63.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="63.95" customHeight="1">
       <c r="A1" s="33" t="s">
         <v>61</v>
       </c>
@@ -3062,7 +3082,7 @@
       <c r="J1" s="33"/>
       <c r="K1" s="33"/>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="42" customHeight="1" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -3098,7 +3118,7 @@
       </c>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:14" s="16" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="16" customFormat="1" ht="34.5" customHeight="1" thickTop="1">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -3139,7 +3159,7 @@
       </c>
       <c r="M3" s="10"/>
     </row>
-    <row r="4" spans="1:14" s="16" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="16" customFormat="1" ht="34.5" customHeight="1">
       <c r="A4" s="17">
         <v>2</v>
       </c>
@@ -3178,7 +3198,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="10"/>
     </row>
-    <row r="5" spans="1:14" s="16" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" s="16" customFormat="1" ht="34.5" customHeight="1">
       <c r="A5" s="17">
         <v>3</v>
       </c>
@@ -3217,7 +3237,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:14" s="16" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="16" customFormat="1" ht="34.5" customHeight="1">
       <c r="A6" s="17">
         <v>4</v>
       </c>
@@ -3256,7 +3276,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:14" s="16" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="16" customFormat="1" ht="34.5" customHeight="1">
       <c r="A7" s="17">
         <v>5</v>
       </c>
@@ -3295,7 +3315,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:14" s="16" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="16" customFormat="1" ht="34.5" customHeight="1">
       <c r="A8" s="17">
         <v>6</v>
       </c>
@@ -3334,7 +3354,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:14" s="16" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" s="16" customFormat="1" ht="34.5" customHeight="1">
       <c r="A9" s="17">
         <v>7</v>
       </c>
@@ -3373,7 +3393,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:14" s="16" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="16" customFormat="1" ht="34.5" customHeight="1">
       <c r="A10" s="17">
         <v>8</v>
       </c>
@@ -3412,7 +3432,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:14" s="16" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" s="16" customFormat="1" ht="34.5" customHeight="1">
       <c r="A11" s="23">
         <v>9</v>
       </c>
@@ -3455,7 +3475,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="16" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="16" customFormat="1" ht="34.5" customHeight="1">
       <c r="A12" s="23">
         <v>10</v>
       </c>
@@ -3494,7 +3514,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:14" s="16" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="16" customFormat="1" ht="34.5" customHeight="1">
       <c r="A13" s="23">
         <v>11</v>
       </c>
@@ -3533,7 +3553,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:14" s="16" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="16" customFormat="1" ht="34.5" customHeight="1">
       <c r="A14" s="23">
         <v>12</v>
       </c>
@@ -3573,7 +3593,7 @@
       <c r="M14" s="10"/>
       <c r="N14" s="26"/>
     </row>
-    <row r="15" spans="1:14" s="16" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="16" customFormat="1" ht="34.5" customHeight="1">
       <c r="A15" s="23">
         <v>13</v>
       </c>
@@ -3612,7 +3632,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:14" s="16" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="16" customFormat="1" ht="34.5" customHeight="1">
       <c r="A16" s="23">
         <v>14</v>
       </c>
@@ -3653,7 +3673,7 @@
       </c>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:15" s="16" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" s="16" customFormat="1" ht="34.5" customHeight="1">
       <c r="A17" s="23">
         <v>15</v>
       </c>
@@ -3694,7 +3714,7 @@
       </c>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:15" s="16" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" s="16" customFormat="1" ht="34.5" customHeight="1">
       <c r="A18" s="23">
         <v>16</v>
       </c>
@@ -3735,7 +3755,7 @@
       </c>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="1:15" s="16" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" s="16" customFormat="1" ht="34.5" customHeight="1">
       <c r="A19" s="17">
         <v>17</v>
       </c>
@@ -3776,7 +3796,7 @@
       </c>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="1:15" s="16" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" s="16" customFormat="1" ht="34.5" customHeight="1">
       <c r="A20" s="17">
         <v>18</v>
       </c>
@@ -3815,7 +3835,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:15" s="16" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" s="16" customFormat="1" ht="34.5" customHeight="1">
       <c r="A21" s="17">
         <v>19</v>
       </c>
@@ -3854,7 +3874,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:15" s="16" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" s="16" customFormat="1" ht="34.5" customHeight="1">
       <c r="A22" s="17">
         <v>20</v>
       </c>
@@ -3893,7 +3913,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="1:15" s="16" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" s="16" customFormat="1" ht="34.5" customHeight="1">
       <c r="A23" s="17">
         <v>21</v>
       </c>
@@ -3932,7 +3952,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="10"/>
     </row>
-    <row r="24" spans="1:15" s="16" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" s="16" customFormat="1" ht="34.5" customHeight="1">
       <c r="A24" s="17">
         <v>22</v>
       </c>
@@ -3967,7 +3987,7 @@
       <c r="L24" s="3"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="1:15" s="16" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" s="16" customFormat="1" ht="34.5" customHeight="1">
       <c r="A25" s="17">
         <v>23</v>
       </c>
@@ -4004,7 +4024,7 @@
       <c r="L25" s="3"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="1:15" s="16" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" s="16" customFormat="1" ht="34.5" customHeight="1">
       <c r="A26" s="17">
         <v>24</v>
       </c>
@@ -4043,7 +4063,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="10"/>
     </row>
-    <row r="27" spans="1:15" s="16" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" s="16" customFormat="1" ht="34.5" customHeight="1">
       <c r="A27" s="17">
         <v>25</v>
       </c>
@@ -4082,7 +4102,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="10"/>
     </row>
-    <row r="28" spans="1:15" s="16" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" s="16" customFormat="1" ht="34.5" customHeight="1">
       <c r="A28" s="17"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
@@ -4097,7 +4117,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="10"/>
     </row>
-    <row r="29" spans="1:15" s="16" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" s="16" customFormat="1" ht="34.5" customHeight="1">
       <c r="A29" s="17"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
@@ -4112,7 +4132,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="10"/>
     </row>
-    <row r="30" spans="1:15" s="16" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" s="16" customFormat="1" ht="34.5" customHeight="1">
       <c r="A30" s="17"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
@@ -4127,7 +4147,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="10"/>
     </row>
-    <row r="31" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -4138,7 +4158,7 @@
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
     </row>
-    <row r="32" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -4149,7 +4169,7 @@
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
     </row>
-    <row r="33" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -4160,7 +4180,7 @@
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
     </row>
-    <row r="34" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -4171,7 +4191,7 @@
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
     </row>
-    <row r="35" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -4182,7 +4202,7 @@
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
     </row>
-    <row r="36" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -4193,7 +4213,7 @@
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
     </row>
-    <row r="37" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -4204,7 +4224,7 @@
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
     </row>
-    <row r="38" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -4215,7 +4235,7 @@
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
     </row>
-    <row r="39" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -4226,7 +4246,7 @@
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
     </row>
-    <row r="40" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -4237,7 +4257,7 @@
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
     </row>
-    <row r="41" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -4248,7 +4268,7 @@
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
     </row>
-    <row r="42" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -4259,7 +4279,7 @@
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
     </row>
-    <row r="43" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -4270,7 +4290,7 @@
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
     </row>
-    <row r="44" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -4281,7 +4301,7 @@
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
     </row>
-    <row r="45" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -4292,7 +4312,7 @@
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
     </row>
-    <row r="46" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -4303,7 +4323,7 @@
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
     </row>
-    <row r="47" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -4314,7 +4334,7 @@
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
     </row>
-    <row r="48" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -4325,7 +4345,7 @@
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
     </row>
-    <row r="49" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -4336,7 +4356,7 @@
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
     </row>
-    <row r="50" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -4347,7 +4367,7 @@
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
     </row>
-    <row r="51" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -4358,7 +4378,7 @@
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
     </row>
-    <row r="52" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -4369,7 +4389,7 @@
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
     </row>
-    <row r="53" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -4380,7 +4400,7 @@
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
     </row>
-    <row r="54" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -4391,7 +4411,7 @@
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
     </row>
-    <row r="55" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -4402,7 +4422,7 @@
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
     </row>
-    <row r="56" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -4413,7 +4433,7 @@
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
     </row>
-    <row r="57" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -4424,7 +4444,7 @@
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
     </row>
-    <row r="58" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -4435,7 +4455,7 @@
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
     </row>
-    <row r="59" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -4446,7 +4466,7 @@
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
     </row>
-    <row r="60" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -4457,7 +4477,7 @@
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
     </row>
-    <row r="61" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -4468,7 +4488,7 @@
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
     </row>
-    <row r="62" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -4479,7 +4499,7 @@
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
     </row>
-    <row r="63" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -4490,7 +4510,7 @@
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
     </row>
-    <row r="64" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -4501,7 +4521,7 @@
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
     </row>
-    <row r="65" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -4512,7 +4532,7 @@
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
     </row>
-    <row r="66" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -4523,7 +4543,7 @@
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
     </row>
-    <row r="67" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -4534,7 +4554,7 @@
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
     </row>
-    <row r="68" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -4545,7 +4565,7 @@
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
     </row>
-    <row r="69" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -4556,7 +4576,7 @@
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
     </row>
-    <row r="70" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -4567,7 +4587,7 @@
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
     </row>
-    <row r="71" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -4578,7 +4598,7 @@
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
     </row>
-    <row r="72" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -4589,7 +4609,7 @@
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
     </row>
-    <row r="73" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -4600,7 +4620,7 @@
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
     </row>
-    <row r="74" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -4611,7 +4631,7 @@
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
     </row>
-    <row r="75" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -4622,7 +4642,7 @@
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
     </row>
-    <row r="76" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -4633,7 +4653,7 @@
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
     </row>
-    <row r="77" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -4644,7 +4664,7 @@
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
     </row>
-    <row r="78" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -4655,7 +4675,7 @@
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
     </row>
-    <row r="79" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -4666,7 +4686,7 @@
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
     </row>
-    <row r="80" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -4677,7 +4697,7 @@
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
     </row>
-    <row r="81" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -4688,7 +4708,7 @@
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
     </row>
-    <row r="82" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -4699,7 +4719,7 @@
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
     </row>
-    <row r="83" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -4710,7 +4730,7 @@
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
     </row>
-    <row r="84" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -4721,7 +4741,7 @@
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
     </row>
-    <row r="85" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -4732,7 +4752,7 @@
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
     </row>
-    <row r="86" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -4743,7 +4763,7 @@
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
     </row>
-    <row r="87" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -4754,7 +4774,7 @@
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
     </row>
-    <row r="88" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -4765,7 +4785,7 @@
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
     </row>
-    <row r="89" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -4776,7 +4796,7 @@
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
     </row>
-    <row r="90" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -4787,7 +4807,7 @@
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
     </row>
-    <row r="91" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -4798,7 +4818,7 @@
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
     </row>
-    <row r="92" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -4809,7 +4829,7 @@
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
     </row>
-    <row r="93" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -4820,7 +4840,7 @@
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
     </row>
-    <row r="94" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -4831,7 +4851,7 @@
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
     </row>
-    <row r="95" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -4842,7 +4862,7 @@
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
     </row>
-    <row r="96" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -4853,7 +4873,7 @@
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
     </row>
-    <row r="97" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -4864,7 +4884,7 @@
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
     </row>
-    <row r="98" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -4875,7 +4895,7 @@
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
     </row>
-    <row r="99" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -4886,7 +4906,7 @@
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
     </row>
-    <row r="100" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -4897,7 +4917,7 @@
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
     </row>
-    <row r="101" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -4908,7 +4928,7 @@
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
     </row>
-    <row r="102" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -4919,7 +4939,7 @@
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
     </row>
-    <row r="103" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -4930,7 +4950,7 @@
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
     </row>
-    <row r="104" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -4941,7 +4961,7 @@
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
     </row>
-    <row r="105" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -4952,7 +4972,7 @@
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
     </row>
-    <row r="106" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -4963,7 +4983,7 @@
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
     </row>
-    <row r="107" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -4974,7 +4994,7 @@
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
     </row>
-    <row r="108" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -4985,7 +5005,7 @@
       <c r="N108" s="4"/>
       <c r="O108" s="4"/>
     </row>
-    <row r="109" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -4996,7 +5016,7 @@
       <c r="N109" s="4"/>
       <c r="O109" s="4"/>
     </row>
-    <row r="110" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -5007,7 +5027,7 @@
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
     </row>
-    <row r="111" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -5018,7 +5038,7 @@
       <c r="N111" s="4"/>
       <c r="O111" s="4"/>
     </row>
-    <row r="112" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -5029,7 +5049,7 @@
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
     </row>
-    <row r="113" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -5040,7 +5060,7 @@
       <c r="N113" s="4"/>
       <c r="O113" s="4"/>
     </row>
-    <row r="114" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -5051,7 +5071,7 @@
       <c r="N114" s="4"/>
       <c r="O114" s="4"/>
     </row>
-    <row r="115" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -5062,7 +5082,7 @@
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
     </row>
-    <row r="116" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -5073,7 +5093,7 @@
       <c r="N116" s="4"/>
       <c r="O116" s="4"/>
     </row>
-    <row r="117" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -5084,7 +5104,7 @@
       <c r="N117" s="4"/>
       <c r="O117" s="4"/>
     </row>
-    <row r="118" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -5095,7 +5115,7 @@
       <c r="N118" s="4"/>
       <c r="O118" s="4"/>
     </row>
-    <row r="119" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -5106,7 +5126,7 @@
       <c r="N119" s="4"/>
       <c r="O119" s="4"/>
     </row>
-    <row r="120" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -5117,7 +5137,7 @@
       <c r="N120" s="4"/>
       <c r="O120" s="4"/>
     </row>
-    <row r="121" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -5128,7 +5148,7 @@
       <c r="N121" s="4"/>
       <c r="O121" s="4"/>
     </row>
-    <row r="122" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -5139,7 +5159,7 @@
       <c r="N122" s="4"/>
       <c r="O122" s="4"/>
     </row>
-    <row r="123" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -5150,7 +5170,7 @@
       <c r="N123" s="4"/>
       <c r="O123" s="4"/>
     </row>
-    <row r="124" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -5161,7 +5181,7 @@
       <c r="N124" s="4"/>
       <c r="O124" s="4"/>
     </row>
-    <row r="125" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -5172,7 +5192,7 @@
       <c r="N125" s="4"/>
       <c r="O125" s="4"/>
     </row>
-    <row r="126" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -5183,7 +5203,7 @@
       <c r="N126" s="4"/>
       <c r="O126" s="4"/>
     </row>
-    <row r="127" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -5194,7 +5214,7 @@
       <c r="N127" s="4"/>
       <c r="O127" s="4"/>
     </row>
-    <row r="128" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -5205,7 +5225,7 @@
       <c r="N128" s="4"/>
       <c r="O128" s="4"/>
     </row>
-    <row r="129" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -5216,7 +5236,7 @@
       <c r="N129" s="4"/>
       <c r="O129" s="4"/>
     </row>
-    <row r="130" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -5227,7 +5247,7 @@
       <c r="N130" s="4"/>
       <c r="O130" s="4"/>
     </row>
-    <row r="131" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -5238,7 +5258,7 @@
       <c r="N131" s="4"/>
       <c r="O131" s="4"/>
     </row>
-    <row r="132" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -5249,7 +5269,7 @@
       <c r="N132" s="4"/>
       <c r="O132" s="4"/>
     </row>
-    <row r="133" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -5260,7 +5280,7 @@
       <c r="N133" s="4"/>
       <c r="O133" s="4"/>
     </row>
-    <row r="134" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -5271,7 +5291,7 @@
       <c r="N134" s="4"/>
       <c r="O134" s="4"/>
     </row>
-    <row r="135" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -5282,7 +5302,7 @@
       <c r="N135" s="4"/>
       <c r="O135" s="4"/>
     </row>
-    <row r="136" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -5293,7 +5313,7 @@
       <c r="N136" s="4"/>
       <c r="O136" s="4"/>
     </row>
-    <row r="137" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -5304,7 +5324,7 @@
       <c r="N137" s="4"/>
       <c r="O137" s="4"/>
     </row>
-    <row r="138" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -5315,7 +5335,7 @@
       <c r="N138" s="4"/>
       <c r="O138" s="4"/>
     </row>
-    <row r="139" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -5326,7 +5346,7 @@
       <c r="N139" s="4"/>
       <c r="O139" s="4"/>
     </row>
-    <row r="140" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -5337,7 +5357,7 @@
       <c r="N140" s="4"/>
       <c r="O140" s="4"/>
     </row>
-    <row r="141" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -5348,7 +5368,7 @@
       <c r="N141" s="4"/>
       <c r="O141" s="4"/>
     </row>
-    <row r="142" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -5359,7 +5379,7 @@
       <c r="N142" s="4"/>
       <c r="O142" s="4"/>
     </row>
-    <row r="143" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -5370,7 +5390,7 @@
       <c r="N143" s="4"/>
       <c r="O143" s="4"/>
     </row>
-    <row r="144" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -5381,7 +5401,7 @@
       <c r="N144" s="4"/>
       <c r="O144" s="4"/>
     </row>
-    <row r="145" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -5392,7 +5412,7 @@
       <c r="N145" s="4"/>
       <c r="O145" s="4"/>
     </row>
-    <row r="146" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -5403,7 +5423,7 @@
       <c r="N146" s="4"/>
       <c r="O146" s="4"/>
     </row>
-    <row r="147" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -5414,7 +5434,7 @@
       <c r="N147" s="4"/>
       <c r="O147" s="4"/>
     </row>
-    <row r="148" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -5425,7 +5445,7 @@
       <c r="N148" s="4"/>
       <c r="O148" s="4"/>
     </row>
-    <row r="149" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -5436,7 +5456,7 @@
       <c r="N149" s="4"/>
       <c r="O149" s="4"/>
     </row>
-    <row r="150" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -5447,7 +5467,7 @@
       <c r="N150" s="4"/>
       <c r="O150" s="4"/>
     </row>
-    <row r="151" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -5458,7 +5478,7 @@
       <c r="N151" s="4"/>
       <c r="O151" s="4"/>
     </row>
-    <row r="152" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -5469,7 +5489,7 @@
       <c r="N152" s="4"/>
       <c r="O152" s="4"/>
     </row>
-    <row r="153" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -5480,7 +5500,7 @@
       <c r="N153" s="4"/>
       <c r="O153" s="4"/>
     </row>
-    <row r="154" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -5491,7 +5511,7 @@
       <c r="N154" s="4"/>
       <c r="O154" s="4"/>
     </row>
-    <row r="155" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -5502,7 +5522,7 @@
       <c r="N155" s="4"/>
       <c r="O155" s="4"/>
     </row>
-    <row r="156" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -5513,7 +5533,7 @@
       <c r="N156" s="4"/>
       <c r="O156" s="4"/>
     </row>
-    <row r="157" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -5524,7 +5544,7 @@
       <c r="N157" s="4"/>
       <c r="O157" s="4"/>
     </row>
-    <row r="158" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -5535,7 +5555,7 @@
       <c r="N158" s="4"/>
       <c r="O158" s="4"/>
     </row>
-    <row r="159" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -5546,7 +5566,7 @@
       <c r="N159" s="4"/>
       <c r="O159" s="4"/>
     </row>
-    <row r="160" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -5557,7 +5577,7 @@
       <c r="N160" s="4"/>
       <c r="O160" s="4"/>
     </row>
-    <row r="161" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -5568,7 +5588,7 @@
       <c r="N161" s="4"/>
       <c r="O161" s="4"/>
     </row>
-    <row r="162" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -5579,7 +5599,7 @@
       <c r="N162" s="4"/>
       <c r="O162" s="4"/>
     </row>
-    <row r="163" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -5590,7 +5610,7 @@
       <c r="N163" s="4"/>
       <c r="O163" s="4"/>
     </row>
-    <row r="164" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -5601,7 +5621,7 @@
       <c r="N164" s="4"/>
       <c r="O164" s="4"/>
     </row>
-    <row r="165" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -5612,7 +5632,7 @@
       <c r="N165" s="4"/>
       <c r="O165" s="4"/>
     </row>
-    <row r="166" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -5623,7 +5643,7 @@
       <c r="N166" s="4"/>
       <c r="O166" s="4"/>
     </row>
-    <row r="167" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -5634,7 +5654,7 @@
       <c r="N167" s="4"/>
       <c r="O167" s="4"/>
     </row>
-    <row r="168" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -5645,7 +5665,7 @@
       <c r="N168" s="4"/>
       <c r="O168" s="4"/>
     </row>
-    <row r="169" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -5656,7 +5676,7 @@
       <c r="N169" s="4"/>
       <c r="O169" s="4"/>
     </row>
-    <row r="170" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -5667,7 +5687,7 @@
       <c r="N170" s="4"/>
       <c r="O170" s="4"/>
     </row>
-    <row r="171" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -5678,7 +5698,7 @@
       <c r="N171" s="4"/>
       <c r="O171" s="4"/>
     </row>
-    <row r="172" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -5689,7 +5709,7 @@
       <c r="N172" s="4"/>
       <c r="O172" s="4"/>
     </row>
-    <row r="173" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -5700,7 +5720,7 @@
       <c r="N173" s="4"/>
       <c r="O173" s="4"/>
     </row>
-    <row r="174" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -5711,7 +5731,7 @@
       <c r="N174" s="4"/>
       <c r="O174" s="4"/>
     </row>
-    <row r="175" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -5722,7 +5742,7 @@
       <c r="N175" s="4"/>
       <c r="O175" s="4"/>
     </row>
-    <row r="176" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -5733,7 +5753,7 @@
       <c r="N176" s="4"/>
       <c r="O176" s="4"/>
     </row>
-    <row r="177" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -5744,7 +5764,7 @@
       <c r="N177" s="4"/>
       <c r="O177" s="4"/>
     </row>
-    <row r="178" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -5755,7 +5775,7 @@
       <c r="N178" s="4"/>
       <c r="O178" s="4"/>
     </row>
-    <row r="179" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -5766,7 +5786,7 @@
       <c r="N179" s="4"/>
       <c r="O179" s="4"/>
     </row>
-    <row r="180" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -5777,7 +5797,7 @@
       <c r="N180" s="4"/>
       <c r="O180" s="4"/>
     </row>
-    <row r="181" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -5788,7 +5808,7 @@
       <c r="N181" s="4"/>
       <c r="O181" s="4"/>
     </row>
-    <row r="182" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -5799,7 +5819,7 @@
       <c r="N182" s="4"/>
       <c r="O182" s="4"/>
     </row>
-    <row r="183" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -5810,7 +5830,7 @@
       <c r="N183" s="4"/>
       <c r="O183" s="4"/>
     </row>
-    <row r="184" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -5821,7 +5841,7 @@
       <c r="N184" s="4"/>
       <c r="O184" s="4"/>
     </row>
-    <row r="185" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -5832,7 +5852,7 @@
       <c r="N185" s="4"/>
       <c r="O185" s="4"/>
     </row>
-    <row r="186" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -5843,7 +5863,7 @@
       <c r="N186" s="4"/>
       <c r="O186" s="4"/>
     </row>
-    <row r="187" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -5854,7 +5874,7 @@
       <c r="N187" s="4"/>
       <c r="O187" s="4"/>
     </row>
-    <row r="188" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -5865,7 +5885,7 @@
       <c r="N188" s="4"/>
       <c r="O188" s="4"/>
     </row>
-    <row r="189" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -5876,7 +5896,7 @@
       <c r="N189" s="4"/>
       <c r="O189" s="4"/>
     </row>
-    <row r="190" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -5887,7 +5907,7 @@
       <c r="N190" s="4"/>
       <c r="O190" s="4"/>
     </row>
-    <row r="191" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -5898,7 +5918,7 @@
       <c r="N191" s="4"/>
       <c r="O191" s="4"/>
     </row>
-    <row r="192" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -5909,7 +5929,7 @@
       <c r="N192" s="4"/>
       <c r="O192" s="4"/>
     </row>
-    <row r="193" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -5920,7 +5940,7 @@
       <c r="N193" s="4"/>
       <c r="O193" s="4"/>
     </row>
-    <row r="194" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -5931,7 +5951,7 @@
       <c r="N194" s="4"/>
       <c r="O194" s="4"/>
     </row>
-    <row r="195" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -5942,7 +5962,7 @@
       <c r="N195" s="4"/>
       <c r="O195" s="4"/>
     </row>
-    <row r="196" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -5953,7 +5973,7 @@
       <c r="N196" s="4"/>
       <c r="O196" s="4"/>
     </row>
-    <row r="197" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -5964,7 +5984,7 @@
       <c r="N197" s="4"/>
       <c r="O197" s="4"/>
     </row>
-    <row r="198" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -5975,7 +5995,7 @@
       <c r="N198" s="4"/>
       <c r="O198" s="4"/>
     </row>
-    <row r="199" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -5986,7 +6006,7 @@
       <c r="N199" s="4"/>
       <c r="O199" s="4"/>
     </row>
-    <row r="200" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -5997,7 +6017,7 @@
       <c r="N200" s="4"/>
       <c r="O200" s="4"/>
     </row>
-    <row r="201" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -6008,7 +6028,7 @@
       <c r="N201" s="4"/>
       <c r="O201" s="4"/>
     </row>
-    <row r="202" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -6019,7 +6039,7 @@
       <c r="N202" s="4"/>
       <c r="O202" s="4"/>
     </row>
-    <row r="203" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -6030,7 +6050,7 @@
       <c r="N203" s="4"/>
       <c r="O203" s="4"/>
     </row>
-    <row r="204" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -6041,7 +6061,7 @@
       <c r="N204" s="4"/>
       <c r="O204" s="4"/>
     </row>
-    <row r="205" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -6052,7 +6072,7 @@
       <c r="N205" s="4"/>
       <c r="O205" s="4"/>
     </row>
-    <row r="206" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -6063,7 +6083,7 @@
       <c r="N206" s="4"/>
       <c r="O206" s="4"/>
     </row>
-    <row r="207" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -6074,7 +6094,7 @@
       <c r="N207" s="4"/>
       <c r="O207" s="4"/>
     </row>
-    <row r="208" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -6085,7 +6105,7 @@
       <c r="N208" s="4"/>
       <c r="O208" s="4"/>
     </row>
-    <row r="209" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -6096,7 +6116,7 @@
       <c r="N209" s="4"/>
       <c r="O209" s="4"/>
     </row>
-    <row r="210" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -6107,7 +6127,7 @@
       <c r="N210" s="4"/>
       <c r="O210" s="4"/>
     </row>
-    <row r="211" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -6118,7 +6138,7 @@
       <c r="N211" s="4"/>
       <c r="O211" s="4"/>
     </row>
-    <row r="212" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -6129,7 +6149,7 @@
       <c r="N212" s="4"/>
       <c r="O212" s="4"/>
     </row>
-    <row r="213" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -6140,7 +6160,7 @@
       <c r="N213" s="4"/>
       <c r="O213" s="4"/>
     </row>
-    <row r="214" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -6151,7 +6171,7 @@
       <c r="N214" s="4"/>
       <c r="O214" s="4"/>
     </row>
-    <row r="215" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -6162,7 +6182,7 @@
       <c r="N215" s="4"/>
       <c r="O215" s="4"/>
     </row>
-    <row r="216" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -6173,7 +6193,7 @@
       <c r="N216" s="4"/>
       <c r="O216" s="4"/>
     </row>
-    <row r="217" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -6184,7 +6204,7 @@
       <c r="N217" s="4"/>
       <c r="O217" s="4"/>
     </row>
-    <row r="218" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -6195,7 +6215,7 @@
       <c r="N218" s="4"/>
       <c r="O218" s="4"/>
     </row>
-    <row r="219" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" s="3" customFormat="1" ht="24.95" customHeight="1">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>

--- a/app/src/main/resources/migration/HAS-DB-대비견적서.xlsx
+++ b/app/src/main/resources/migration/HAS-DB-대비견적서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amist\IdeaProjects\hywtl_has\app\src\main\resources\migration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6FC15B-1E39-4C6E-BA18-7E20A2F33C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57E5563-0FC8-4460-9111-015F77AC64DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-6855" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -763,7 +763,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -779,6 +779,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,7 +970,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1064,13 +1070,37 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1395,7 +1425,7 @@
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1413,16 +1443,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="34" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="29" t="s">
@@ -1441,33 +1471,33 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="29">
+    <row r="2" spans="1:9" s="39" customFormat="1">
+      <c r="A2" s="36">
         <v>22430</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="36">
         <v>5</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="37">
         <v>85000000</v>
       </c>
-      <c r="G2" s="30">
+      <c r="G2" s="37">
         <v>15000000</v>
       </c>
-      <c r="H2" s="30">
+      <c r="H2" s="37">
         <f t="shared" ref="H2:H8" si="0">SUM(F2,G2)</f>
         <v>100000000</v>
       </c>
-      <c r="I2" s="31">
+      <c r="I2" s="38">
         <v>44897</v>
       </c>
     </row>
@@ -1531,93 +1561,93 @@
         <v>44855</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="29">
+    <row r="5" spans="1:9" s="39" customFormat="1">
+      <c r="A5" s="36">
         <v>22370</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="36">
         <v>8</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="37">
         <v>176000000</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="37">
         <v>24000000</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="37">
         <f t="shared" si="0"/>
         <v>200000000</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="38">
         <v>44823</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="29">
+    <row r="6" spans="1:9" s="43" customFormat="1">
+      <c r="A6" s="40">
         <v>22355</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="40">
         <v>11</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="41">
         <v>192000000</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="41">
         <v>33000000</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="41">
         <f t="shared" si="0"/>
         <v>225000000</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="42">
         <v>44811</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="29">
+    <row r="7" spans="1:9" s="43" customFormat="1">
+      <c r="A7" s="40">
         <v>22347</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="40">
         <v>2</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="41">
         <v>59000000</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="41">
         <v>6000000</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="41">
         <f t="shared" si="0"/>
         <v>65000000</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="42">
         <v>44802</v>
       </c>
     </row>
@@ -1821,33 +1851,33 @@
         <v>44728</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="29">
+    <row r="15" spans="1:9" s="39" customFormat="1">
+      <c r="A15" s="36">
         <v>22264</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="36">
         <v>1</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="37">
         <v>45000000</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="37">
         <v>3000000</v>
       </c>
-      <c r="H15" s="30">
+      <c r="H15" s="37">
         <f t="shared" si="1"/>
         <v>48000000</v>
       </c>
-      <c r="I15" s="31">
+      <c r="I15" s="38">
         <v>44728</v>
       </c>
     </row>
@@ -2449,62 +2479,62 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="29">
+      <c r="A36" s="36">
         <v>21386</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="29" t="s">
+      <c r="D36" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="29">
+      <c r="E36" s="36">
         <v>8</v>
       </c>
-      <c r="F36" s="30">
+      <c r="F36" s="37">
         <v>151000000</v>
       </c>
-      <c r="G36" s="30">
+      <c r="G36" s="37">
         <v>24000000</v>
       </c>
-      <c r="H36" s="30">
+      <c r="H36" s="37">
         <f t="shared" si="2"/>
         <v>175000000</v>
       </c>
-      <c r="I36" s="31">
+      <c r="I36" s="38">
         <v>44439</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="29">
+      <c r="A37" s="36">
         <v>21386</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="29">
+      <c r="E37" s="36">
         <v>8</v>
       </c>
-      <c r="F37" s="30">
+      <c r="F37" s="37">
         <v>151000000</v>
       </c>
-      <c r="G37" s="30">
+      <c r="G37" s="37">
         <v>24000000</v>
       </c>
-      <c r="H37" s="30">
+      <c r="H37" s="37">
         <f t="shared" si="2"/>
         <v>175000000</v>
       </c>
-      <c r="I37" s="31">
+      <c r="I37" s="38">
         <v>44439</v>
       </c>
     </row>
@@ -2617,62 +2647,62 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="29">
+      <c r="A42" s="36">
         <v>21300</v>
       </c>
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="29" t="s">
+      <c r="D42" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="E42" s="29">
+      <c r="E42" s="36">
         <v>8</v>
       </c>
-      <c r="F42" s="30">
+      <c r="F42" s="37">
         <v>148000000</v>
       </c>
-      <c r="G42" s="30">
+      <c r="G42" s="37">
         <v>24000000</v>
       </c>
-      <c r="H42" s="30">
+      <c r="H42" s="37">
         <f t="shared" si="2"/>
         <v>172000000</v>
       </c>
-      <c r="I42" s="31">
+      <c r="I42" s="38">
         <v>44383</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="29">
+      <c r="A43" s="36">
         <v>21300</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="29" t="s">
+      <c r="D43" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="29">
+      <c r="E43" s="36">
         <v>7</v>
       </c>
-      <c r="F43" s="30">
+      <c r="F43" s="37">
         <v>139000000</v>
       </c>
-      <c r="G43" s="30">
+      <c r="G43" s="37">
         <v>21000000</v>
       </c>
-      <c r="H43" s="30">
+      <c r="H43" s="37">
         <f t="shared" si="2"/>
         <v>160000000</v>
       </c>
-      <c r="I43" s="31">
+      <c r="I43" s="38">
         <v>44413</v>
       </c>
     </row>
@@ -3068,19 +3098,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="63.95" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:14" s="10" customFormat="1" ht="42" customHeight="1" thickBot="1">
       <c r="A2" s="5" t="s">
